--- a/Data/Female and Male Astronauts Accepted in the NASA Program.xlsx
+++ b/Data/Female and Male Astronauts Accepted in the NASA Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACEY GONZALEZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c16a54571cfc90dc/Documents/GitHub/NASA-Hiring-Rate/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE80683-23E4-4BE5-9320-978D2B949E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="15" windowWidth="20295" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
